--- a/System Tests/systemtest.xlsx
+++ b/System Tests/systemtest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73efc2931dda9863/Documents/GitHub/CIT360/System Tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{E396C435-6FC7-4725-B167-A1CE0B46A623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{949582BB-EC8D-4955-9243-2D1B47FEC260}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{E396C435-6FC7-4725-B167-A1CE0B46A623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2E59F5FD-D102-4EE9-81E6-79075F20DBA5}"/>
   <bookViews>
-    <workbookView xWindow="3443" yWindow="7815" windowWidth="21600" windowHeight="11430" xr2:uid="{2EDFE720-0349-411B-84F7-9AA3F0F2CEED}"/>
+    <workbookView xWindow="2963" yWindow="1365" windowWidth="21599" windowHeight="11430" xr2:uid="{2EDFE720-0349-411B-84F7-9AA3F0F2CEED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Test Name</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>Formatted correctly</t>
+  </si>
+  <si>
+    <t>Performs Math Correctly</t>
+  </si>
+  <si>
+    <t>Checks is math is correctly performed</t>
+  </si>
+  <si>
+    <t>Validates Math Equations</t>
+  </si>
+  <si>
+    <t>Explains Program</t>
+  </si>
+  <si>
+    <t>Explains to user the function of application</t>
+  </si>
+  <si>
+    <t>Prints Explanation</t>
   </si>
 </sst>
 </file>
@@ -505,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B036AD04-9CB8-4992-93B1-C4C2125AD528}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -548,28 +566,28 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -577,13 +595,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -591,43 +609,71 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
